--- a/Class_Exercises/Week_4/dv8-analysis-hw1/dv8-analysis-result/anti-pattern/anti-pattern-costs/anti-pattern-cost.xlsx
+++ b/Class_Exercises/Week_4/dv8-analysis-hw1/dv8-analysis-result/anti-pattern/anti-pattern-costs/anti-pattern-cost.xlsx
@@ -188,7 +188,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n" s="4">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C3" s="14">
         <f>B3/B5</f>
